--- a/public/format/Format Import Efaktur PM.xlsx
+++ b/public/format/Format Import Efaktur PM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,62 +8,99 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\Sequislife\ecosystem\public\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23C58A17-538C-48EC-AE62-6B7DB59470D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981D40F3-BBED-46B5-9078-EC40181973D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Format Efaktu PM" sheetId="1" r:id="rId1"/>
+    <sheet name="Setting" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>NPWP</t>
   </si>
   <si>
-    <t>NAMA</t>
-  </si>
-  <si>
     <t>PT SUMBER KARYA BERKAH</t>
   </si>
   <si>
-    <t>JENIS TRANSAKSI</t>
-  </si>
-  <si>
-    <t>FAKTUR</t>
-  </si>
-  <si>
-    <t>NOMOR FAKTUR</t>
-  </si>
-  <si>
-    <t>TANGGAL FAKTUR</t>
-  </si>
-  <si>
-    <t>ALAMAT LENGKAP</t>
-  </si>
-  <si>
-    <t>JUMLAH DPP</t>
-  </si>
-  <si>
-    <t>JUMLAH PPN</t>
-  </si>
-  <si>
-    <t>JUMLAH PPNBM</t>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Jenis Transaksi</t>
+  </si>
+  <si>
+    <t>No Faktur</t>
+  </si>
+  <si>
+    <t>Jenis Faktur</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Faktur Pajak</t>
+  </si>
+  <si>
+    <t>Jumlah DPP</t>
+  </si>
+  <si>
+    <t>Jumlah PPN</t>
+  </si>
+  <si>
+    <t>Jumlah PPNBM</t>
+  </si>
+  <si>
+    <t>Kepada Pihak Yang Bukan Pemungut</t>
+  </si>
+  <si>
+    <t>ID Keterangan Tambahan 07</t>
+  </si>
+  <si>
+    <t>ID Keterangan Tambahan 08</t>
+  </si>
+  <si>
+    <t>Senjata, Amunisi, Helm Anti Peluru</t>
+  </si>
+  <si>
+    <t>Kepada Pemungut Bendaharawan</t>
+  </si>
+  <si>
+    <t>Kepada Pemungut Selain Bendaharawan</t>
+  </si>
+  <si>
+    <t>DPP Nilai Lain</t>
+  </si>
+  <si>
+    <t>Besaran Tertentu (Pasal 9A ayat (1) UU PPN)</t>
+  </si>
+  <si>
+    <t>Penyerahan Lainnya</t>
+  </si>
+  <si>
+    <t>Penyerahan Yang PPN-nya Tidak Dipungut</t>
+  </si>
+  <si>
+    <t>Penyerahan Yang PPN-nya Dibebaskan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="168" formatCode="000000000000000"/>
-    <numFmt numFmtId="172" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="000000000000000"/>
+    <numFmt numFmtId="166" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -543,69 +580,95 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Aksen1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Aksen1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Aksen2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Aksen3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Aksen4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Aksen5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Aksen6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Baik" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Buruk" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Catatan" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Judul" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Judul 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Judul 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Judul 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Judul 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Keluaran" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Masukan" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Mata Uang" xfId="1" builtinId="4"/>
-    <cellStyle name="Netral" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Perhitungan" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Sel Periksa" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Sel Tertaut" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Teks Penjelasan" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Teks Peringatan" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="172" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="000000000000000"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="166" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="000000000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     </dxf>
     <dxf>
       <font>
@@ -640,26 +703,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="A1:J2" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:J2"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="TANGGAL FAKTUR" dataDxfId="2"/>
-    <tableColumn id="2" name="JENIS TRANSAKSI"/>
-    <tableColumn id="3" name="FAKTUR"/>
-    <tableColumn id="4" name="NOMOR FAKTUR"/>
-    <tableColumn id="5" name="NPWP" dataDxfId="1"/>
-    <tableColumn id="6" name="NAMA"/>
-    <tableColumn id="7" name="ALAMAT LENGKAP"/>
-    <tableColumn id="8" name="JUMLAH DPP" dataDxfId="0" dataCellStyle="Mata Uang"/>
-    <tableColumn id="9" name="JUMLAH PPN"/>
-    <tableColumn id="10" name="JUMLAH PPNBM"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel2" displayName="Tabel2" ref="A1:I2" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tanggal" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="No Faktur" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="NPWP" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nama"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Alamat"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Jumlah DPP" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Jumlah PPN"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Jumlah PPNBM"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Jenis Faktur" dataDxfId="0" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -954,59 +1016,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.42578125" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1014,35 +1077,119 @@
         <v>36525</v>
       </c>
       <c r="B2">
+        <v>32342479156</v>
+      </c>
+      <c r="C2" s="3">
+        <v>314917956322000</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>32342479156</v>
-      </c>
-      <c r="E2" s="3">
-        <v>314917956322000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
+      <c r="F2" s="4">
+        <v>340000000</v>
+      </c>
+      <c r="G2" s="4">
+        <v>340000000</v>
       </c>
       <c r="H2" s="4">
         <v>340000000</v>
       </c>
-      <c r="I2" s="4">
-        <v>340000000</v>
-      </c>
-      <c r="J2" s="4">
-        <v>340000000</v>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{D76B4C3E-2949-4262-A5A4-B20062463BBD}">
+      <formula1>"Faktur Pajak,Faktur Pajak Pengganti"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789030B5-B869-4EDA-9283-DCA12DD99695}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>